--- a/examples/symreg/nguyen/nguyen7.xlsx
+++ b/examples/symreg/nguyen/nguyen7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,22 +13,27 @@
     <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>xrandom (ni caso)</t>
+    <t xml:space="preserve">xrandom (ni caso)</t>
   </si>
   <si>
-    <t>xvalues</t>
+    <t xml:space="preserve">xvalues</t>
   </si>
   <si>
-    <t>function</t>
+    <t xml:space="preserve">function</t>
   </si>
   <si>
-    <t>yvalues</t>
+    <t xml:space="preserve">yvalues</t>
   </si>
 </sst>
 </file>
@@ -36,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -129,17 +134,17 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1457489878542"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,7 +164,7 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.680433433502913</v>
+        <v>1.66575457134286</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.271123663522303</v>
@@ -175,305 +180,305 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.475789788644761</v>
+        <v>0.312129757484988</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.729351353831589</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">SIN(B4)+SIN(B4+POWER(B4,2))</f>
-        <v>1.61887468626473</v>
+        <f aca="false">LOG(B4+1)+LOG(POWER(B4,2)+1)</f>
+        <v>0.423128792306971</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.61887468626473</v>
+        <v>0.423128792306971</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.30043187038973</v>
+        <v>0.865641689799769</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1.61852594185621</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">SIN(B5)+SIN(B5+POWER(B5,2))</f>
-        <v>0.10921966127553</v>
+        <f aca="false">LOG(B5+1)+LOG(POWER(B5,2)+1)</f>
+        <v>0.976720606882502</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.10921966127553</v>
+        <v>0.976720606882502</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.234290267340839</v>
+        <v>1.83861871507589</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.730611779727042</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">SIN(B6)+SIN(B6+POWER(B6,2))</f>
-        <v>1.62075372260119</v>
+        <f aca="false">LOG(B6+1)+LOG(POWER(B6,2)+1)</f>
+        <v>0.423966569031384</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.62075372260119</v>
+        <v>0.423966569031384</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.303736686240882</v>
+        <v>0.844133496241232</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.23202021839097</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">SIN(B7)+SIN(B7+POWER(B7,2))</f>
-        <v>1.32492104323577</v>
+        <f aca="false">LOG(B7+1)+LOG(POWER(B7,2)+1)</f>
+        <v>0.749732086223674</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.32492104323577</v>
+        <v>0.749732086223674</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.493290276266634</v>
+        <v>0.929390484255729</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.296509840060025</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">SIN(B8)+SIN(B8+POWER(B8,2))</f>
-        <v>0.667213013789195</v>
+        <f aca="false">LOG(B8+1)+LOG(POWER(B8,2)+1)</f>
+        <v>0.149372013670361</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.667213013789195</v>
+        <v>0.149372013670361</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.870230738073587</v>
+        <v>1.46090827776204</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.573863130994141</v>
       </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">SIN(B9)+SIN(B9+POWER(B9,2))</f>
-        <v>1.32818130622214</v>
+        <f aca="false">LOG(B9+1)+LOG(POWER(B9,2)+1)</f>
+        <v>0.32059613905868</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.32818130622214</v>
+        <v>0.32059613905868</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.99028237303719</v>
+        <v>1.13681541035084</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1.20673836674541</v>
       </c>
       <c r="C10" s="0" t="n">
-        <f aca="false">SIN(B10)+SIN(B10+POWER(B10,2))</f>
-        <v>1.39502920344239</v>
+        <f aca="false">LOG(B10+1)+LOG(POWER(B10,2)+1)</f>
+        <v>0.734017664573053</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.39502920344239</v>
+        <v>0.734017664573053</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.52509377477691</v>
+        <v>1.29882772341929</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.20584594225511</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">SIN(B11)+SIN(B11+POWER(B11,2))</f>
-        <v>0.450072760490959</v>
+        <f aca="false">LOG(B11+1)+LOG(POWER(B11,2)+1)</f>
+        <v>0.099314793179655</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.450072760490959</v>
+        <v>0.099314793179655</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.38072969159111</v>
+        <v>0.240315644078303</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.275154198519886</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">SIN(B12)+SIN(B12+POWER(B12,2))</f>
-        <v>0.615404665225588</v>
+        <f aca="false">LOG(B12+1)+LOG(POWER(B12,2)+1)</f>
+        <v>0.137257843664134</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.615404665225588</v>
+        <v>0.137257843664134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.915348906535655</v>
+        <v>0.356770786840896</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.617997156921774</v>
       </c>
       <c r="C13" s="0" t="n">
-        <f aca="false">SIN(B13)+SIN(B13+POWER(B13,2))</f>
-        <v>1.42083040963271</v>
+        <f aca="false">LOG(B13+1)+LOG(POWER(B13,2)+1)</f>
+        <v>0.349460809129303</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.42083040963271</v>
+        <v>0.349460809129303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.57883757399395</v>
+        <v>0.656420745731571</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.122758942190558</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">SIN(B14)+SIN(B14+POWER(B14,2))</f>
-        <v>0.259843581314218</v>
+        <f aca="false">LOG(B14+1)+LOG(POWER(B14,2)+1)</f>
+        <v>0.0567824116510974</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.259843581314218</v>
+        <v>0.0567824116510974</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.92260287422687</v>
+        <v>0.663323425402995</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.898584456648678</v>
       </c>
       <c r="C15" s="0" t="n">
-        <f aca="false">SIN(B15)+SIN(B15+POWER(B15,2))</f>
-        <v>1.7733149196196</v>
+        <f aca="false">LOG(B15+1)+LOG(POWER(B15,2)+1)</f>
+        <v>0.535497180489449</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.7733149196196</v>
+        <v>0.535497180489449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.531949443742633</v>
+        <v>1.24661151551378</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.78077064687386</v>
       </c>
       <c r="C16" s="0" t="n">
-        <f aca="false">SIN(B16)+SIN(B16+POWER(B16,2))</f>
-        <v>0.00658567469539051</v>
+        <f aca="false">LOG(B16+1)+LOG(POWER(B16,2)+1)</f>
+        <v>1.06442036377406</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.00658567469539051</v>
+        <v>1.06442036377406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.621173379477114</v>
+        <v>0.768210511772205</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1.36861863080412</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">SIN(B17)+SIN(B17+POWER(B17,2))</f>
-        <v>0.879655977513385</v>
+        <f aca="false">LOG(B17+1)+LOG(POWER(B17,2)+1)</f>
+        <v>0.832848446249924</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.879655977513385</v>
+        <v>0.832848446249924</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.40012526698411</v>
+        <v>0.0563457422393016</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.52799482177943</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">SIN(B18)+SIN(B18+POWER(B18,2))</f>
-        <v>1.22586088434393</v>
+        <f aca="false">LOG(B18+1)+LOG(POWER(B18,2)+1)</f>
+        <v>0.290917219173367</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.22586088434393</v>
+        <v>0.290917219173367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>1.62325403513387</v>
+        <v>1.07216160914975</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1.60235854843631</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">SIN(B19)+SIN(B19+POWER(B19,2))</f>
-        <v>0.143069683322919</v>
+        <f aca="false">LOG(B19+1)+LOG(POWER(B19,2)+1)</f>
+        <v>0.967737556439723</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.143069683322919</v>
+        <v>0.967737556439723</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.752921484876424</v>
+        <v>1.59115820425366</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1.85768646420911</v>
       </c>
       <c r="C20" s="0" t="n">
-        <f aca="false">SIN(B20)+SIN(B20+POWER(B20,2))</f>
-        <v>0.131707399609039</v>
+        <f aca="false">LOG(B20+1)+LOG(POWER(B20,2)+1)</f>
+        <v>1.10447207437468</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.131707399609039</v>
+        <v>1.10447207437468</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.702151128556579</v>
+        <v>0.206272115603292</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.61628264840692</v>
       </c>
       <c r="C21" s="0" t="n">
-        <f aca="false">SIN(B21)+SIN(B21+POWER(B21,2))</f>
-        <v>0.113702486678489</v>
+        <f aca="false">LOG(B21+1)+LOG(POWER(B21,2)+1)</f>
+        <v>0.975476839659</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.113702486678489</v>
+        <v>0.975476839659</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="true">-0+RAND()*(2-(-0))</f>
-        <v>0.542275768704712</v>
+        <v>0.913428921223866</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1.31678929645568</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">SIN(B22)+SIN(B22+POWER(B22,2))</f>
-        <v>1.05865759332232</v>
+        <f aca="false">LOG(B22+1)+LOG(POWER(B22,2)+1)</f>
+        <v>0.801674572267698</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.05865759332232</v>
+        <v>0.801674572267698</v>
       </c>
     </row>
   </sheetData>
@@ -495,12 +500,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -521,12 +526,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
